--- a/src/test/resources/testdata/BankManagerSuite.xlsx
+++ b/src/test/resources/testdata/BankManagerSuite.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\seleniumworkspaces\LiveProjects\TestDataProject\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sami/IdeaProjects/TestDataProject/src/test/resources/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="12800" windowHeight="21060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
     <sheet name="TestData" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>TestCases</t>
   </si>
@@ -91,16 +94,43 @@
   </si>
   <si>
     <t>Abhigya</t>
+  </si>
+  <si>
+    <t>Sami</t>
+  </si>
+  <si>
+    <t>Sabir</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -123,13 +153,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -410,13 +449,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,7 +463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -432,7 +471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -447,20 +486,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -474,7 +517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -488,7 +531,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -502,12 +545,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -518,7 +561,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -529,7 +572,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -540,7 +583,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -551,7 +594,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -562,7 +605,19 @@
         <v>18</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>